--- a/numpy/project/indian_employee_data.xlsx
+++ b/numpy/project/indian_employee_data.xlsx
@@ -165,7 +165,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -229,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,11 +255,14 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -575,14 +584,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -611,7 +620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>101</v>
       </c>
@@ -637,7 +646,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>102</v>
       </c>
@@ -661,7 +670,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>103</v>
       </c>
@@ -674,7 +683,7 @@
       <c r="D4" s="4">
         <v>1200000</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -687,7 +696,7 @@
         <v>4.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>104</v>
       </c>
@@ -713,7 +722,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
         <v>105</v>
       </c>
@@ -735,9 +744,9 @@
       <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="H6" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>106</v>
       </c>
@@ -763,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
         <v>107</v>
       </c>
@@ -773,7 +782,7 @@
       <c r="C8" s="4">
         <v>31</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="4">
@@ -789,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>108</v>
       </c>
@@ -815,7 +824,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4">
         <v>109</v>
       </c>
@@ -1135,7 +1144,7 @@
       <c r="C22" s="4">
         <v>42</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="4">
@@ -1239,7 +1248,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
